--- a/Doc/ExcelConfig/Datas/道具/ItemPrizePoolGroupConfig.xlsx
+++ b/Doc/ExcelConfig/Datas/道具/ItemPrizePoolGroupConfig.xlsx
@@ -1066,14 +1066,14 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="5.08333333333333" customWidth="1"/>
+    <col min="3" max="3" width="29.0833333333333" customWidth="1"/>
     <col min="4" max="4" width="16.8333333333333" customWidth="1"/>
     <col min="5" max="5" width="13.4166666666667" customWidth="1"/>
     <col min="6" max="6" width="14.3333333333333" customWidth="1"/>

--- a/Doc/ExcelConfig/Datas/道具/ItemPrizePoolGroupConfig.xlsx
+++ b/Doc/ExcelConfig/Datas/道具/ItemPrizePoolGroupConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>##</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>bool</t>
   </si>
   <si>
     <t>list,Item.ItemRandomCountBean</t>
@@ -709,7 +712,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="7" applyAlignment="1"/>
@@ -726,7 +729,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1063,10 +1067,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1075,8 +1079,8 @@
     <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="29.0833333333333" customWidth="1"/>
     <col min="4" max="4" width="16.8333333333333" customWidth="1"/>
-    <col min="5" max="5" width="13.4166666666667" customWidth="1"/>
-    <col min="6" max="6" width="14.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="20.8333333333333" customWidth="1"/>
+    <col min="6" max="6" width="19.25" customWidth="1"/>
     <col min="7" max="7" width="15.9166666666667" customWidth="1"/>
     <col min="8" max="8" width="14.6666666666667" customWidth="1"/>
   </cols>
@@ -1127,15 +1131,15 @@
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="E3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="9"/>
       <c r="G3" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" s="5"/>
     </row>
@@ -1143,26 +1147,26 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="G4" s="12" t="s">
         <v>20</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:8">
@@ -1174,12 +1178,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="3">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F5" s="3">
-        <v>2</v>
-      </c>
-      <c r="G5" s="12">
+        <v>1</v>
+      </c>
+      <c r="G5" s="13">
         <v>10001</v>
       </c>
       <c r="H5" s="3">
@@ -1187,14 +1191,14 @@
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="13"/>
+      <c r="B6" s="14"/>
       <c r="E6">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6" s="12">
+        <v>1</v>
+      </c>
+      <c r="G6" s="13">
         <v>10002</v>
       </c>
       <c r="H6" s="3">
@@ -1202,464 +1206,59 @@
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="13"/>
-      <c r="G7" s="12">
-        <v>10003</v>
+      <c r="B7" s="4">
+        <v>10002</v>
+      </c>
+      <c r="G7" s="13">
+        <v>10001</v>
       </c>
       <c r="H7" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="13"/>
-      <c r="G8" s="12">
-        <v>10004</v>
+      <c r="B8" s="14"/>
+      <c r="G8" s="13">
+        <v>10002</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="13"/>
-      <c r="G9" s="12">
-        <v>10005</v>
+      <c r="B9" s="4">
+        <v>10003</v>
+      </c>
+      <c r="G9" s="13">
+        <v>10001</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="13"/>
-      <c r="G10" s="12">
-        <v>10006</v>
+      <c r="B10" s="14"/>
+      <c r="G10" s="13">
+        <v>10002</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="13"/>
-      <c r="G11" s="12">
-        <v>10007</v>
+      <c r="B11" s="14"/>
+      <c r="G11" s="13">
+        <v>10003</v>
       </c>
       <c r="H11" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="13"/>
-      <c r="G12" s="12">
-        <v>10008</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1</v>
-      </c>
+    <row r="12" spans="7:7">
+      <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="13"/>
-      <c r="G13" s="12">
-        <v>10009</v>
-      </c>
-      <c r="H13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="13"/>
-      <c r="G14" s="12">
-        <v>10010</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="B15" s="13"/>
-      <c r="G15" s="12">
-        <v>10011</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="B16" s="13"/>
-      <c r="G16" s="12">
-        <v>10012</v>
-      </c>
-      <c r="H16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="13"/>
-      <c r="G17" s="12">
-        <v>10013</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="13"/>
-      <c r="G18" s="12">
-        <v>10014</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="13"/>
-      <c r="G19" s="12">
-        <v>10015</v>
-      </c>
-      <c r="H19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="13"/>
-      <c r="G20" s="12">
-        <v>10016</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="4">
-        <v>10002</v>
-      </c>
-      <c r="G21" s="12">
-        <v>10017</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="13"/>
-      <c r="G22" s="12">
-        <v>10018</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="13"/>
-      <c r="G23" s="12">
-        <v>10019</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="13"/>
-      <c r="G24" s="12">
-        <v>10020</v>
-      </c>
-      <c r="H24" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="13"/>
-      <c r="G25" s="12">
-        <v>10021</v>
-      </c>
-      <c r="H25" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="13"/>
-      <c r="G26" s="12">
-        <v>10022</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="13"/>
-      <c r="G27" s="12">
-        <v>10023</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="13"/>
-      <c r="G28" s="12">
-        <v>10024</v>
-      </c>
-      <c r="H28" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="13"/>
-      <c r="G29" s="12">
-        <v>10025</v>
-      </c>
-      <c r="H29" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="13"/>
-      <c r="G30" s="12">
-        <v>10026</v>
-      </c>
-      <c r="H30" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="13"/>
-      <c r="G31" s="12">
-        <v>10027</v>
-      </c>
-      <c r="H31" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="13"/>
-      <c r="G32" s="12">
-        <v>10028</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="13"/>
-      <c r="G33" s="12">
-        <v>10029</v>
-      </c>
-      <c r="H33" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="13"/>
-      <c r="G34" s="12">
-        <v>10030</v>
-      </c>
-      <c r="H34" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35" s="13"/>
-      <c r="G35" s="12">
-        <v>10031</v>
-      </c>
-      <c r="H35" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="B36" s="13"/>
-      <c r="G36" s="12">
-        <v>10032</v>
-      </c>
-      <c r="H36" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8">
-      <c r="B37" s="13"/>
-      <c r="G37" s="12">
-        <v>10033</v>
-      </c>
-      <c r="H37" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="B38" s="4">
-        <v>10003</v>
-      </c>
-      <c r="G38" s="12">
-        <v>10034</v>
-      </c>
-      <c r="H38" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="B39" s="13"/>
-      <c r="G39" s="12">
-        <v>10035</v>
-      </c>
-      <c r="H39" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8">
-      <c r="B40" s="13"/>
-      <c r="G40" s="12">
-        <v>10036</v>
-      </c>
-      <c r="H40" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="B41" s="13"/>
-      <c r="G41" s="12">
-        <v>10037</v>
-      </c>
-      <c r="H41" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="B42" s="13"/>
-      <c r="G42" s="12">
-        <v>10038</v>
-      </c>
-      <c r="H42" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="B43" s="13"/>
-      <c r="G43" s="12">
-        <v>10039</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8">
-      <c r="B44" s="13"/>
-      <c r="G44" s="12">
-        <v>10040</v>
-      </c>
-      <c r="H44" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8">
-      <c r="B45" s="13"/>
-      <c r="G45" s="12">
-        <v>10041</v>
-      </c>
-      <c r="H45" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8">
-      <c r="B46" s="13"/>
-      <c r="G46" s="12">
-        <v>10042</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8">
-      <c r="B47" s="13"/>
-      <c r="G47" s="12">
-        <v>10043</v>
-      </c>
-      <c r="H47" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8">
-      <c r="B48" s="13"/>
-      <c r="G48" s="12">
-        <v>10044</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8">
-      <c r="B49" s="13"/>
-      <c r="G49" s="12">
-        <v>10045</v>
-      </c>
-      <c r="H49" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8">
-      <c r="B50" s="13"/>
-      <c r="G50" s="12">
-        <v>10046</v>
-      </c>
-      <c r="H50" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8">
-      <c r="B51" s="13"/>
-      <c r="G51" s="12">
-        <v>10047</v>
-      </c>
-      <c r="H51" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8">
-      <c r="B52" s="13"/>
-      <c r="G52" s="12">
-        <v>10048</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8">
-      <c r="B53" s="13"/>
-      <c r="G53" s="12">
-        <v>10049</v>
-      </c>
-      <c r="H53" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8">
-      <c r="B54" s="13"/>
-      <c r="G54" s="12">
-        <v>10050</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8">
-      <c r="B55" s="13"/>
-      <c r="G55" s="12">
-        <v>10051</v>
-      </c>
-      <c r="H55" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8">
-      <c r="B56" s="13"/>
-      <c r="G56" s="12">
-        <v>10052</v>
-      </c>
-      <c r="H56" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="7:7">
-      <c r="G57" s="12"/>
-    </row>
-    <row r="58" spans="7:7">
-      <c r="G58" s="12"/>
+    <row r="13" spans="7:7">
+      <c r="G13" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">
